--- a/target/classes/com/factorial/qa/testdata/Factorial_Data.xlsx
+++ b/target/classes/com/factorial/qa/testdata/Factorial_Data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disha-QA-Application-2020\Factorial_POMFramework\src\main\java\com\factorial\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A11E9B-EE9A-4741-819D-29E52DAAD7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76917F49-16B5-4080-99FC-8E748EE99F5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -51,19 +50,28 @@
     <t>Enter an integer</t>
   </si>
   <si>
-    <t>The factorial of 4 is: 24</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
     <t>Calculate!</t>
+  </si>
+  <si>
+    <t>The factorial of 5 is: 120</t>
+  </si>
+  <si>
+    <t>https://qainterview.pythonanywhere.com/privacy</t>
+  </si>
+  <si>
+    <t>https://qainterview.pythonanywhere.com/terms</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -416,22 +424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C84E69-32AF-48A6-B8CB-A14A553E81BE}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +451,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -456,12 +468,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
